--- a/AD8402_WeinBridge_DCOテスト表.xlsx
+++ b/AD8402_WeinBridge_DCOテスト表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="107">
   <si>
     <t>1) 電源なし ICなし</t>
     <phoneticPr fontId="2"/>
@@ -42,14 +42,6 @@
     <t>値</t>
   </si>
   <si>
-    <t>2017.08.28 #1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2017.08.28 #2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2017.09.10</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -122,10 +114,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>IC2-16</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IC1-2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -351,10 +339,6 @@
   </si>
   <si>
     <t>0V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AGND</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -370,6 +354,94 @@
     <rPh sb="24" eb="25">
       <t>ヒョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VCC/2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2017.09.13 #1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2017.09.13 #2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.19k~7.2k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>481.7nF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>479.1nF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>93.72uF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>123.06uF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100.0k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IC2-11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JP5-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IC2-14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+2.53V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+5.06V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+5.05V</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -743,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -756,13 +828,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -776,7 +848,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -789,7 +861,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -802,10 +874,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -827,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -838,13 +910,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -852,13 +927,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -866,13 +947,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -880,13 +967,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -894,13 +984,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -908,13 +1001,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -922,13 +1018,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -936,461 +1035,560 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1398,13 +1596,16 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1412,13 +1613,16 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1426,13 +1630,16 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1440,13 +1647,16 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1454,13 +1664,16 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1468,16 +1681,16 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1485,13 +1698,16 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1499,13 +1715,16 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1513,13 +1732,16 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1527,13 +1749,16 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,13 +1766,16 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1555,13 +1783,16 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1569,13 +1800,16 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1583,13 +1817,16 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1597,13 +1834,16 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1611,13 +1851,16 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1625,16 +1868,16 @@
         <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1642,229 +1885,268 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="E72" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>84</v>
+      <c r="D73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>37</v>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>37</v>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
-      <c r="D79" t="s">
-        <v>84</v>
+      <c r="D79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
-      <c r="D80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
         <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -1873,12 +2155,51 @@
         <v>1</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
